--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Prok1-Prokr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Prok1-Prokr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>Prokr2</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -446,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +513,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,359 +525,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2855585</v>
+        <v>0.01013966666666667</v>
       </c>
       <c r="H2">
-        <v>0.571117</v>
+        <v>0.030419</v>
       </c>
       <c r="I2">
-        <v>0.9657094030004696</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9494311229918077</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0562305</v>
+        <v>0.1523886666666667</v>
       </c>
       <c r="N2">
-        <v>0.112461</v>
+        <v>0.457166</v>
       </c>
       <c r="O2">
-        <v>0.2446777727253938</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1776037447114952</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01605709723425</v>
+        <v>0.001545170283777778</v>
       </c>
       <c r="R2">
-        <v>0.06422838893699999</v>
+        <v>0.013906532554</v>
       </c>
       <c r="S2">
-        <v>0.2362876258261246</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.1686225227889852</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-      <c r="G3">
-        <v>0.2855585</v>
-      </c>
-      <c r="H3">
-        <v>0.571117</v>
-      </c>
-      <c r="I3">
-        <v>0.9657094030004696</v>
-      </c>
-      <c r="J3">
-        <v>0.9494311229918077</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.1523886666666666</v>
-      </c>
-      <c r="N3">
-        <v>0.457166</v>
-      </c>
-      <c r="O3">
-        <v>0.6630942201935329</v>
-      </c>
-      <c r="P3">
-        <v>0.7219782284949929</v>
-      </c>
-      <c r="Q3">
-        <v>0.04351587907033332</v>
-      </c>
-      <c r="R3">
-        <v>0.261095274422</v>
-      </c>
-      <c r="S3">
-        <v>0.6403563235161586</v>
-      </c>
-      <c r="T3">
-        <v>0.6854686002556371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>0.2855585</v>
-      </c>
-      <c r="H4">
-        <v>0.571117</v>
-      </c>
-      <c r="I4">
-        <v>0.9657094030004696</v>
-      </c>
-      <c r="J4">
-        <v>0.9494311229918077</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.02119533333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.063586</v>
-      </c>
-      <c r="O4">
-        <v>0.09222800708107337</v>
-      </c>
-      <c r="P4">
-        <v>0.1004180267935118</v>
-      </c>
-      <c r="Q4">
-        <v>0.006052507593666667</v>
-      </c>
-      <c r="R4">
-        <v>0.036315045562</v>
-      </c>
-      <c r="S4">
-        <v>0.08906545365818645</v>
-      </c>
-      <c r="T4">
-        <v>0.09533999994718535</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.01013966666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.030419</v>
-      </c>
-      <c r="I5">
-        <v>0.03429059699953049</v>
-      </c>
-      <c r="J5">
-        <v>0.05056887700819236</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.5</v>
-      </c>
-      <c r="M5">
-        <v>0.0562305</v>
-      </c>
-      <c r="N5">
-        <v>0.112461</v>
-      </c>
-      <c r="O5">
-        <v>0.2446777727253938</v>
-      </c>
-      <c r="P5">
-        <v>0.1776037447114952</v>
-      </c>
-      <c r="Q5">
-        <v>0.0005701585264999999</v>
-      </c>
-      <c r="R5">
-        <v>0.003420951159</v>
-      </c>
-      <c r="S5">
-        <v>0.008390146899269191</v>
-      </c>
-      <c r="T5">
-        <v>0.008981221922509995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01013966666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.030419</v>
-      </c>
-      <c r="I6">
-        <v>0.03429059699953049</v>
-      </c>
-      <c r="J6">
-        <v>0.05056887700819236</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1523886666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.457166</v>
-      </c>
-      <c r="O6">
-        <v>0.6630942201935329</v>
-      </c>
-      <c r="P6">
-        <v>0.7219782284949929</v>
-      </c>
-      <c r="Q6">
-        <v>0.001545170283777778</v>
-      </c>
-      <c r="R6">
-        <v>0.013906532554</v>
-      </c>
-      <c r="S6">
-        <v>0.02273789667737437</v>
-      </c>
-      <c r="T6">
-        <v>0.0365096282393559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01013966666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.030419</v>
-      </c>
-      <c r="I7">
-        <v>0.03429059699953049</v>
-      </c>
-      <c r="J7">
-        <v>0.05056887700819236</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02119533333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.063586</v>
-      </c>
-      <c r="O7">
-        <v>0.09222800708107337</v>
-      </c>
-      <c r="P7">
-        <v>0.1004180267935118</v>
-      </c>
-      <c r="Q7">
-        <v>0.0002149136148888889</v>
-      </c>
-      <c r="R7">
-        <v>0.001934222534</v>
-      </c>
-      <c r="S7">
-        <v>0.003162553422886931</v>
-      </c>
-      <c r="T7">
-        <v>0.005078026846326464</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
